--- a/Exercise13p4-Audo_Player/stm32 timer worksheet.xlsx
+++ b/Exercise13p4-Audo_Player/stm32 timer worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\OneDrive\Documents\DiscoveringSTM32\Exercise13p3-Interrupt_Triggered_DAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\OneDrive\Documents\DiscoveringSTM32\Exercise13p4-Audo_Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2662034-9FAE-40C5-AFB3-71497A2C3B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F60762-BC53-4E32-BDF1-F2618EC6C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B03197A-48E6-4BCF-AE5C-62A4470EC6D8}"/>
   </bookViews>
@@ -137,13 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C80083-E709-4F3B-8838-F172476268C3}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,30 +604,30 @@
         <v>24000000</v>
       </c>
       <c r="B6" s="2">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <f>A6/B6</f>
+        <v>6</v>
       </c>
       <c r="D6">
         <f>A6/C6</f>
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="E6" s="3">
         <f>1/D6</f>
-        <v>1.6666666666666668E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="F6">
-        <f>408/3</f>
-        <v>136</v>
-      </c>
-      <c r="G6">
+        <v>91</v>
+      </c>
+      <c r="G6" s="6">
         <f>D6/F6</f>
-        <v>44117.647058823532</v>
+        <v>43956.043956043955</v>
       </c>
       <c r="H6">
         <f>1/G6</f>
-        <v>2.2666666666666664E-5</v>
+        <v>2.2750000000000001E-5</v>
       </c>
       <c r="J6" s="4"/>
       <c r="L6" t="s">
@@ -634,29 +635,46 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
+      <c r="A8" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B8" s="1">
+        <v>408</v>
+      </c>
+      <c r="C8" s="1">
+        <f>A8*B8</f>
+        <v>17992800</v>
+      </c>
+      <c r="D8" s="1">
+        <v>72000000</v>
+      </c>
+      <c r="E8">
+        <f>D8/C8</f>
+        <v>4.0016006402561022</v>
+      </c>
+      <c r="F8">
+        <f>D8/E8</f>
+        <v>17992800</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -664,49 +682,26 @@
         <v>44100</v>
       </c>
       <c r="B9" s="1">
-        <v>408</v>
+        <v>4081</v>
       </c>
       <c r="C9" s="1">
         <f>A9*B9</f>
-        <v>17992800</v>
+        <v>179972100</v>
       </c>
       <c r="D9" s="1">
         <v>72000000</v>
       </c>
       <c r="E9">
         <f>D9/C9</f>
-        <v>4.0016006402561022</v>
+        <v>0.4000620096114898</v>
       </c>
       <c r="F9">
         <f>D9/E9</f>
-        <v>17992800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44100</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4081</v>
-      </c>
-      <c r="C10" s="1">
-        <f>A10*B10</f>
         <v>179972100</v>
       </c>
-      <c r="D10" s="1">
-        <v>72000000</v>
-      </c>
-      <c r="E10">
-        <f>D10/C10</f>
-        <v>0.4000620096114898</v>
-      </c>
-      <c r="F10">
-        <f>D10/E10</f>
-        <v>179972100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f>72000000/4</f>
         <v>18000000</v>
       </c>
